--- a/Data/aearep-1241/candidatepackages.xlsx
+++ b/Data/aearep-1241/candidatepackages.xlsx
@@ -14,20 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>(Potential) missing package found</t>
   </si>
   <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>table1</t>
+  </si>
+  <si>
     <t>sxpose</t>
   </si>
   <si>
-    <t>groups</t>
-  </si>
-  <si>
-    <t>table1</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -40,12 +40,12 @@
     <t>index</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
     <t>cv</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -67,9 +67,6 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-1241/120390/Data/Data</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1241/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>main_file_K_eq.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -160,7 +154,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -172,7 +166,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -184,7 +178,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -196,10 +190,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>565</v>
+        <v>499</v>
       </c>
       <c r="C5">
-        <v>0.18733422458171844</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D5"/>
     </row>
@@ -208,10 +202,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>594</v>
+        <v>539</v>
       </c>
       <c r="C6">
-        <v>0.19694960117340088</v>
+        <v>0.17818181216716766</v>
       </c>
       <c r="D6"/>
     </row>
@@ -220,10 +214,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C7">
-        <v>0.24701590836048126</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D7"/>
     </row>
@@ -232,10 +226,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>985</v>
+        <v>998</v>
       </c>
       <c r="C8">
-        <v>0.32659152150154114</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D8"/>
     </row>
@@ -244,10 +238,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1424</v>
+        <v>1306</v>
       </c>
       <c r="C9">
-        <v>0.47214853763580322</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D9"/>
     </row>
@@ -256,10 +250,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1472</v>
+        <v>1503</v>
       </c>
       <c r="C10">
-        <v>0.48806366324424744</v>
+        <v>0.49685949087142944</v>
       </c>
       <c r="D10"/>
     </row>
@@ -269,7 +263,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -277,7 +271,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -285,7 +279,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -293,7 +287,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -301,7 +295,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -309,7 +303,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -317,7 +311,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -325,7 +319,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -333,7 +327,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -341,15 +335,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
